--- a/DesignDocs/VariableData/TubeCooler.xlsx
+++ b/DesignDocs/VariableData/TubeCooler.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DE69C2C-05DF-4299-903D-0364DF5E6CE2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D15548B-8794-4639-B16B-CBF7733DE0CE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" xr2:uid="{F598384B-001D-4AD5-B5A5-EB89C313FEFA}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,22 @@
   </si>
   <si>
     <t>돈시나02 쿨러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaner_cooler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리너 쿨러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaner_R_cooler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깔끔한 클리너 쿨러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -177,7 +193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,13 +209,35 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -216,8 +254,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -534,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBA90FB-8240-4877-8E44-28B8023EEE4D}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -824,6 +868,52 @@
         <v>5</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5300</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>5301</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{2B65B712-4EAE-4578-8DFA-F599170739A2}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DesignDocs/VariableData/TubeCooler.xlsx
+++ b/DesignDocs/VariableData/TubeCooler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D15548B-8794-4639-B16B-CBF7733DE0CE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0C72FB-8CDB-4BC1-A9DC-ABF8E674C75B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" xr2:uid="{F598384B-001D-4AD5-B5A5-EB89C313FEFA}"/>
   </bookViews>
@@ -581,7 +581,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -732,7 +732,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5102</v>
+        <v>7101</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5105</v>
+        <v>7102</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5108</v>
+        <v>7103</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>5111</v>
+        <v>7104</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>5114</v>
+        <v>7105</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>5117</v>
+        <v>7106</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>5300</v>
+        <v>7107</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>5301</v>
+        <v>7108</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>

--- a/DesignDocs/VariableData/TubeCooler.xlsx
+++ b/DesignDocs/VariableData/TubeCooler.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0C72FB-8CDB-4BC1-A9DC-ABF8E674C75B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" xr2:uid="{F598384B-001D-4AD5-B5A5-EB89C313FEFA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="8112"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,22 +176,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클리너 쿨러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cleaner_R_cooler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>깔끔한 클리너 쿨러</t>
+    <t>mingkies_cooler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청소부 쿨러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량한 청소부 쿨러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밍키즈 쿨러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -577,22 +588,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBA90FB-8240-4877-8E44-28B8023EEE4D}">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" customWidth="1"/>
+    <col min="6" max="6" width="17.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>3100</v>
       </c>
@@ -638,7 +649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3101</v>
       </c>
@@ -661,7 +672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3102</v>
       </c>
@@ -684,7 +695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3103</v>
       </c>
@@ -707,7 +718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3104</v>
       </c>
@@ -730,7 +741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7101</v>
       </c>
@@ -753,7 +764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7102</v>
       </c>
@@ -776,7 +787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7103</v>
       </c>
@@ -799,7 +810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>7104</v>
       </c>
@@ -822,7 +833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>7105</v>
       </c>
@@ -845,7 +856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>7106</v>
       </c>
@@ -868,7 +879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>7107</v>
       </c>
@@ -876,7 +887,7 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -891,15 +902,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>7108</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -914,8 +925,31 @@
         <v>4</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>7109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{2B65B712-4EAE-4578-8DFA-F599170739A2}"/>
+  <autoFilter ref="A1:G1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DesignDocs/VariableData/TubeCooler.xlsx
+++ b/DesignDocs/VariableData/TubeCooler.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46267ED1-5E48-4FFE-A03B-F7863E0B18B1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="8112"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="97">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,12 +199,172 @@
   <si>
     <t>fight</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_cat_01_cooler_00_cooler</t>
+  </si>
+  <si>
+    <t>13_cat_01_cooler_01_cooler</t>
+  </si>
+  <si>
+    <t>13_cat_02_cooler_00_cooler</t>
+  </si>
+  <si>
+    <t>13_pitbull_00_cooler</t>
+  </si>
+  <si>
+    <t>13_pitbull_01_cooler</t>
+  </si>
+  <si>
+    <t>13_pitbull_02_cooler</t>
+  </si>
+  <si>
+    <t>13_owl_00_cooler</t>
+  </si>
+  <si>
+    <t>13_owl_01_cooler</t>
+  </si>
+  <si>
+    <t>13_crow_00_cooler</t>
+  </si>
+  <si>
+    <t>13_crow_01_cooler</t>
+  </si>
+  <si>
+    <t>13_salamander_00_cooler</t>
+  </si>
+  <si>
+    <t>13_carbannog_00_cooler</t>
+  </si>
+  <si>
+    <t>13_carbannog_01_cooler</t>
+  </si>
+  <si>
+    <t>13_carbannog_02_cooler</t>
+  </si>
+  <si>
+    <t>13_carbannog_03_cooler</t>
+  </si>
+  <si>
+    <t>13_tag_00_cooler</t>
+  </si>
+  <si>
+    <t>13_tag_01_cooler</t>
+  </si>
+  <si>
+    <t>13_tag_02_cooler</t>
+  </si>
+  <si>
+    <t>13_tim_00_cooler</t>
+  </si>
+  <si>
+    <t>13_tim_01_cooler</t>
+  </si>
+  <si>
+    <t>13_tim_02_cooler</t>
+  </si>
+  <si>
+    <t>13_tim_03_cooler</t>
+  </si>
+  <si>
+    <t>13_madbuddy_00_cooler</t>
+  </si>
+  <si>
+    <t>13_madbuddy_01_cooler</t>
+  </si>
+  <si>
+    <t>13_madbuddy_02_cooler</t>
+  </si>
+  <si>
+    <t>13_madbuddy_03_cooler</t>
+  </si>
+  <si>
+    <t>고양이1 쿨러 00</t>
+  </si>
+  <si>
+    <t>고양이1 쿨러 01</t>
+  </si>
+  <si>
+    <t>고양이2 쿨러 00</t>
+  </si>
+  <si>
+    <t>고양이2 쿨러 01</t>
+  </si>
+  <si>
+    <t>핏불 쿨러 00</t>
+  </si>
+  <si>
+    <t>핏불 쿨러 01</t>
+  </si>
+  <si>
+    <t>핏불 쿨러 02</t>
+  </si>
+  <si>
+    <t>부엉이 쿨러 00</t>
+  </si>
+  <si>
+    <t>부엉이 쿨러 01</t>
+  </si>
+  <si>
+    <t>까마귀 쿨러 00</t>
+  </si>
+  <si>
+    <t>까마귀 쿨러 01</t>
+  </si>
+  <si>
+    <t>도롱뇽 쿨러 00</t>
+  </si>
+  <si>
+    <t>카르바노그 쿨러 00</t>
+  </si>
+  <si>
+    <t>카르바노그 쿨러 01</t>
+  </si>
+  <si>
+    <t>카르바노그 쿨러 02</t>
+  </si>
+  <si>
+    <t>카르바노그 쿨러 03</t>
+  </si>
+  <si>
+    <t>태그 쿨러 00</t>
+  </si>
+  <si>
+    <t>태그 쿨러 01</t>
+  </si>
+  <si>
+    <t>태그 쿨러 02</t>
+  </si>
+  <si>
+    <t>팀 쿨러 00</t>
+  </si>
+  <si>
+    <t>팀 쿨러 01</t>
+  </si>
+  <si>
+    <t>팀 쿨러 02</t>
+  </si>
+  <si>
+    <t>팀 쿨러 03</t>
+  </si>
+  <si>
+    <t>매드버디 쿨러 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매드버디 쿨러 01</t>
+  </si>
+  <si>
+    <t>매드버디 쿨러 02</t>
+  </si>
+  <si>
+    <t>매드버디 쿨러 03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,7 +398,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +408,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,6 +440,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,22 +758,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3100</v>
       </c>
@@ -649,7 +819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3101</v>
       </c>
@@ -672,7 +842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3102</v>
       </c>
@@ -695,7 +865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3103</v>
       </c>
@@ -718,7 +888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3104</v>
       </c>
@@ -741,7 +911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7101</v>
       </c>
@@ -764,7 +934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7102</v>
       </c>
@@ -787,7 +957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7103</v>
       </c>
@@ -810,7 +980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7104</v>
       </c>
@@ -833,7 +1003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7105</v>
       </c>
@@ -856,7 +1026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7106</v>
       </c>
@@ -879,7 +1049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7107</v>
       </c>
@@ -902,7 +1072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>7108</v>
       </c>
@@ -925,7 +1095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7109</v>
       </c>
@@ -948,8 +1118,629 @@
         <v>2</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>7110</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>7111</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>7112</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>7113</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>7114</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>7115</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>7116</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>7117</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>7118</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>7119</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>7120</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>7121</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>7122</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>7123</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>7124</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>7125</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>7126</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>7127</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>7128</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>7129</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>7130</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>7131</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>7132</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>7133</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>7134</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>7135</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>7136</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DesignDocs/VariableData/TubeCooler.xlsx
+++ b/DesignDocs/VariableData/TubeCooler.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2151732-D30E-4CA9-BB98-EE044BD98334}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="8112"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,12 +123,20 @@
   </si>
   <si>
     <t>RaccoonGlass</t>
+  </si>
+  <si>
+    <t>Normal Shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,12 +154,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -167,8 +182,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -484,22 +502,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="G7" sqref="A7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3100</v>
       </c>
@@ -545,7 +563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3101</v>
       </c>
@@ -568,7 +586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3102</v>
       </c>
@@ -591,7 +609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3103</v>
       </c>
@@ -614,7 +632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3104</v>
       </c>
@@ -637,8 +655,31 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>3105</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DesignDocs/VariableData/TubeCooler.xlsx
+++ b/DesignDocs/VariableData/TubeCooler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2151732-D30E-4CA9-BB98-EE044BD98334}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5B0C7C-AB50-4D8C-9C36-685ADB859C32}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,7 +506,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="A7:G7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -675,7 +675,7 @@
         <v>21</v>
       </c>
       <c r="G7" s="1">
-        <v>30</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
